--- a/output/demonstrativos_bronze/Demonstrativos_Empresa_BBDC4.xlsx
+++ b/output/demonstrativos_bronze/Demonstrativos_Empresa_BBDC4.xlsx
@@ -7,14 +7,16 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="BPP" sheetId="1" r:id="rId1"/>
+    <sheet name="DFC_MI" sheetId="1" r:id="rId1"/>
+    <sheet name="BPA" sheetId="2" r:id="rId2"/>
+    <sheet name="DRE" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="363">
   <si>
     <t>DT_REFER</t>
   </si>
@@ -34,25 +36,448 @@
     <t>2024-09-30</t>
   </si>
   <si>
+    <t>2023-03-31</t>
+  </si>
+  <si>
+    <t>2023-06-30</t>
+  </si>
+  <si>
+    <t>2023-09-30</t>
+  </si>
+  <si>
+    <t>DENOM_CIA</t>
+  </si>
+  <si>
+    <t>TICKER</t>
+  </si>
+  <si>
+    <t>CD_CONTA</t>
+  </si>
+  <si>
+    <t>DS_CONTA</t>
+  </si>
+  <si>
+    <t>BCO BRADESCO S.A.</t>
+  </si>
+  <si>
+    <t>BBDC4</t>
+  </si>
+  <si>
+    <t>6.01</t>
+  </si>
+  <si>
+    <t>6.01.01</t>
+  </si>
+  <si>
+    <t>6.01.01.01</t>
+  </si>
+  <si>
+    <t>6.01.01.02</t>
+  </si>
+  <si>
+    <t>6.01.02</t>
+  </si>
+  <si>
+    <t>6.01.02.01</t>
+  </si>
+  <si>
+    <t>6.01.02.02</t>
+  </si>
+  <si>
+    <t>6.01.02.03</t>
+  </si>
+  <si>
+    <t>6.01.02.04</t>
+  </si>
+  <si>
+    <t>6.01.02.05</t>
+  </si>
+  <si>
+    <t>6.01.02.06</t>
+  </si>
+  <si>
+    <t>6.01.02.07</t>
+  </si>
+  <si>
+    <t>6.01.02.08</t>
+  </si>
+  <si>
+    <t>6.01.02.09</t>
+  </si>
+  <si>
+    <t>6.01.02.10</t>
+  </si>
+  <si>
+    <t>6.01.02.11</t>
+  </si>
+  <si>
+    <t>6.01.03</t>
+  </si>
+  <si>
+    <t>6.01.03.01</t>
+  </si>
+  <si>
+    <t>6.01.03.02</t>
+  </si>
+  <si>
+    <t>6.01.03.03</t>
+  </si>
+  <si>
+    <t>6.02</t>
+  </si>
+  <si>
+    <t>6.02.01</t>
+  </si>
+  <si>
+    <t>6.02.02</t>
+  </si>
+  <si>
+    <t>6.02.03</t>
+  </si>
+  <si>
+    <t>6.02.04</t>
+  </si>
+  <si>
+    <t>6.02.05</t>
+  </si>
+  <si>
+    <t>6.02.06</t>
+  </si>
+  <si>
+    <t>6.02.07</t>
+  </si>
+  <si>
+    <t>6.02.08</t>
+  </si>
+  <si>
+    <t>6.02.09</t>
+  </si>
+  <si>
+    <t>6.02.10</t>
+  </si>
+  <si>
+    <t>6.02.11</t>
+  </si>
+  <si>
+    <t>6.02.12</t>
+  </si>
+  <si>
+    <t>6.02.13</t>
+  </si>
+  <si>
+    <t>6.03</t>
+  </si>
+  <si>
+    <t>6.03.01</t>
+  </si>
+  <si>
+    <t>6.03.02</t>
+  </si>
+  <si>
+    <t>6.03.03</t>
+  </si>
+  <si>
+    <t>6.03.04</t>
+  </si>
+  <si>
+    <t>6.03.05</t>
+  </si>
+  <si>
+    <t>6.03.06</t>
+  </si>
+  <si>
+    <t>6.03.07</t>
+  </si>
+  <si>
+    <t>6.03.08</t>
+  </si>
+  <si>
+    <t>6.03.09</t>
+  </si>
+  <si>
+    <t>6.04</t>
+  </si>
+  <si>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>6.05.01</t>
+  </si>
+  <si>
+    <t>6.05.02</t>
+  </si>
+  <si>
+    <t>Caixa Líquido das Atividades Operacionais</t>
+  </si>
+  <si>
+    <t>Caixa Gerado pelas Operações</t>
+  </si>
+  <si>
+    <t>Lucro ou Prejuízo Líquido antes dos Tributos sobre o Lucro</t>
+  </si>
+  <si>
+    <t>Ajustes ao Lucro ou Prejuízo</t>
+  </si>
+  <si>
+    <t>Variações nos Ativos e Passivos</t>
+  </si>
+  <si>
+    <t>Depósitos compulsórios no Banco Central</t>
+  </si>
+  <si>
+    <t>Empréstimos e adiantamentos a instituições financeiras</t>
+  </si>
+  <si>
+    <t>Empréstimos e adiantamentos a clientes</t>
+  </si>
+  <si>
+    <t>Ativos financeiros ao valor justo por meio do resultado</t>
+  </si>
+  <si>
+    <t>Outros ativos</t>
+  </si>
+  <si>
+    <t>Recursos de instituições financeiras</t>
+  </si>
+  <si>
+    <t>Recursos de clientes</t>
+  </si>
+  <si>
+    <t>Passivos financeiros ao valor justo por meio do resultado</t>
+  </si>
+  <si>
+    <t>Passivos de contratos de seguros</t>
+  </si>
+  <si>
+    <t>Outras provisões</t>
+  </si>
+  <si>
+    <t>Outros passivos</t>
+  </si>
+  <si>
+    <t>Outros</t>
+  </si>
+  <si>
+    <t>Juros Recebidos</t>
+  </si>
+  <si>
+    <t>Juros Pagos</t>
+  </si>
+  <si>
+    <t>Imposto de Renda e Contribuição Social Pagos</t>
+  </si>
+  <si>
+    <t>Caixa Líquido Atividades de Investimento</t>
+  </si>
+  <si>
+    <t>Aquisição de Subsidiárias, Liquida de Caixa e Equivalentes de Caixa Pagos</t>
+  </si>
+  <si>
+    <t>Alienação de Ativos Não Correntes Mantidos para Venda</t>
+  </si>
+  <si>
+    <t>Aquisição de Investimentos em Coligadas</t>
+  </si>
+  <si>
+    <t>Alienação de Investimentos em Coligadas</t>
+  </si>
+  <si>
+    <t>Dividendos e Juros sobre Capital Próprio Recebidos de Investimentos em Coligadas</t>
+  </si>
+  <si>
+    <t>Aquisição de Imobilizado de Uso</t>
+  </si>
+  <si>
+    <t>Alienação de Imobilizado de Uso</t>
+  </si>
+  <si>
+    <t>Aquisição de Ativos Intangíveis</t>
+  </si>
+  <si>
+    <t>Vencimento de Ativos Financeiros ao Custo Amortizado</t>
+  </si>
+  <si>
+    <t>(Aquisição) de Ativos Financeiros ao Custo Amortizado</t>
+  </si>
+  <si>
+    <t>(Aquisição) de Ativos Financeiros ao Valor Justo por meio de Outros Resultados Abrangentes</t>
+  </si>
+  <si>
+    <t>Alienação de Ativos Financeiros ao Valor Justo por meio de Outros Resultados Abrangentes</t>
+  </si>
+  <si>
+    <t>Caixa Líquido Atividades de Financiamento</t>
+  </si>
+  <si>
+    <t>Recursos de Emissão de Títulos</t>
+  </si>
+  <si>
+    <t>Pagamento de Recursos de Emissão de Títulos</t>
+  </si>
+  <si>
+    <t>Emissão de Dívidas Subordinadas</t>
+  </si>
+  <si>
+    <t>Pagamento de Dívidas Subordinadas</t>
+  </si>
+  <si>
+    <t>Aumento / (Redução) da Participação dos Acionistas Não Controladores</t>
+  </si>
+  <si>
+    <t>Juros Pagos sobre o Capital Próprio e Dividendos</t>
+  </si>
+  <si>
+    <t>Pagamento de Arrendamento</t>
+  </si>
+  <si>
+    <t>Aquisição de Ações em Tesouraria</t>
+  </si>
+  <si>
+    <t>Variação Cambial s/ Caixa e Equivalentes</t>
+  </si>
+  <si>
+    <t>Aumento (Redução) de Caixa e Equivalentes</t>
+  </si>
+  <si>
+    <t>Saldo Inicial de Caixa e Equivalentes</t>
+  </si>
+  <si>
+    <t>Saldo Final de Caixa e Equivalentes</t>
+  </si>
+  <si>
     <t>2023-12-31</t>
   </si>
   <si>
-    <t>DENOM_CIA</t>
-  </si>
-  <si>
-    <t>TICKER</t>
-  </si>
-  <si>
-    <t>CD_CONTA</t>
-  </si>
-  <si>
-    <t>DS_CONTA</t>
-  </si>
-  <si>
-    <t>BCO BRADESCO S.A.</t>
-  </si>
-  <si>
-    <t>BBDC4</t>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>Ativo</t>
+  </si>
+  <si>
+    <t>Passivo</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>1.01.01</t>
+  </si>
+  <si>
+    <t>1.01.02</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>1.02.01</t>
+  </si>
+  <si>
+    <t>1.02.02</t>
+  </si>
+  <si>
+    <t>1.02.02.01</t>
+  </si>
+  <si>
+    <t>1.02.02.02</t>
+  </si>
+  <si>
+    <t>1.02.03</t>
+  </si>
+  <si>
+    <t>1.02.03.01</t>
+  </si>
+  <si>
+    <t>1.02.04</t>
+  </si>
+  <si>
+    <t>1.02.04.01</t>
+  </si>
+  <si>
+    <t>1.02.04.02</t>
+  </si>
+  <si>
+    <t>1.02.04.03</t>
+  </si>
+  <si>
+    <t>1.02.04.04</t>
+  </si>
+  <si>
+    <t>1.02.04.05</t>
+  </si>
+  <si>
+    <t>1.02.04.06</t>
+  </si>
+  <si>
+    <t>1.02.04.07</t>
+  </si>
+  <si>
+    <t>1.02.04.08</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>1.03.01</t>
+  </si>
+  <si>
+    <t>1.03.02</t>
+  </si>
+  <si>
+    <t>1.03.03</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>1.04.01</t>
+  </si>
+  <si>
+    <t>1.04.02</t>
+  </si>
+  <si>
+    <t>1.04.03</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>1.05.01</t>
+  </si>
+  <si>
+    <t>1.05.02</t>
+  </si>
+  <si>
+    <t>1.05.03</t>
+  </si>
+  <si>
+    <t>1.05.04</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>1.06.01</t>
+  </si>
+  <si>
+    <t>1.06.02</t>
+  </si>
+  <si>
+    <t>1.06.03</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>1.07.01</t>
+  </si>
+  <si>
+    <t>1.07.02</t>
+  </si>
+  <si>
+    <t>1.07.03</t>
   </si>
   <si>
     <t>2</t>
@@ -184,6 +609,117 @@
     <t>2.07.02</t>
   </si>
   <si>
+    <t>Ativo Total</t>
+  </si>
+  <si>
+    <t>Caixa e Equivalentes de Caixa</t>
+  </si>
+  <si>
+    <t>Caixa</t>
+  </si>
+  <si>
+    <t>Aplicações de Liquidez</t>
+  </si>
+  <si>
+    <t>Ativos Financeiros</t>
+  </si>
+  <si>
+    <t>Depósito Compulsório Banco Central</t>
+  </si>
+  <si>
+    <t>Ativos Financeiros Avaliados ao Valor Justo através do Resultado</t>
+  </si>
+  <si>
+    <t>Títulos e Valores Mobiliários</t>
+  </si>
+  <si>
+    <t>Derivativos</t>
+  </si>
+  <si>
+    <t>Ativos Financeiros Avaliados ao Valor Justo através de Outros Resultados Abrangentes</t>
+  </si>
+  <si>
+    <t>Ativos Financeiros ao Custo Amortizado</t>
+  </si>
+  <si>
+    <t>Aplicações em Depósitos Interfinanceiros</t>
+  </si>
+  <si>
+    <t>Aplicações no Mercado Aberto</t>
+  </si>
+  <si>
+    <t>Operações de Crédito</t>
+  </si>
+  <si>
+    <t>Provisão para Perdas Esperadas Associadas ao Risco de Crédito</t>
+  </si>
+  <si>
+    <t>Operações de Arrendamento</t>
+  </si>
+  <si>
+    <t>Provisão para Perdas Esperadas Associadas ao Risco de Crédito de Operações de Arrendamento</t>
+  </si>
+  <si>
+    <t>Outros Ativos Financeiros</t>
+  </si>
+  <si>
+    <t>Tributos</t>
+  </si>
+  <si>
+    <t>Imposto de Renda e Contribuição Social - Correntes</t>
+  </si>
+  <si>
+    <t>Imposto de Renda e Contribuição Social - Diferidos</t>
+  </si>
+  <si>
+    <t>Outros Ativos</t>
+  </si>
+  <si>
+    <t>Ativos Não Correntes a Venda</t>
+  </si>
+  <si>
+    <t>Ativos de Operações Descontinuadas</t>
+  </si>
+  <si>
+    <t>Investimentos</t>
+  </si>
+  <si>
+    <t>Participações em Coligadas</t>
+  </si>
+  <si>
+    <t>Participações em Controladas em Conjunto</t>
+  </si>
+  <si>
+    <t>Propriedades para Investimento</t>
+  </si>
+  <si>
+    <t>Outros Investimentos</t>
+  </si>
+  <si>
+    <t>Imobilizado</t>
+  </si>
+  <si>
+    <t>Imobilizado de Uso</t>
+  </si>
+  <si>
+    <t>Direito de Uso de Arrendamento</t>
+  </si>
+  <si>
+    <t>Depreciação Acumulada</t>
+  </si>
+  <si>
+    <t>Intangível</t>
+  </si>
+  <si>
+    <t>Intangíveis</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Amortização Acumulada</t>
+  </si>
+  <si>
     <t>Passivo Total</t>
   </si>
   <si>
@@ -308,6 +844,267 @@
   </si>
   <si>
     <t>Patrimônio Líquido Atribuído aos Não Controladores</t>
+  </si>
+  <si>
+    <t>DT_INI_EXERC</t>
+  </si>
+  <si>
+    <t>2023-01-01</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>2023-07-01</t>
+  </si>
+  <si>
+    <t>2024-01-01</t>
+  </si>
+  <si>
+    <t>2024-04-01</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>3.01</t>
+  </si>
+  <si>
+    <t>3.01.01</t>
+  </si>
+  <si>
+    <t>3.01.02</t>
+  </si>
+  <si>
+    <t>3.01.03</t>
+  </si>
+  <si>
+    <t>3.01.04</t>
+  </si>
+  <si>
+    <t>3.02</t>
+  </si>
+  <si>
+    <t>3.02.01</t>
+  </si>
+  <si>
+    <t>3.03</t>
+  </si>
+  <si>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>3.04.01</t>
+  </si>
+  <si>
+    <t>3.04.01.01</t>
+  </si>
+  <si>
+    <t>3.04.01.02</t>
+  </si>
+  <si>
+    <t>3.04.02</t>
+  </si>
+  <si>
+    <t>3.04.03</t>
+  </si>
+  <si>
+    <t>3.04.04</t>
+  </si>
+  <si>
+    <t>3.04.05</t>
+  </si>
+  <si>
+    <t>3.04.06</t>
+  </si>
+  <si>
+    <t>3.04.06.01</t>
+  </si>
+  <si>
+    <t>3.04.07</t>
+  </si>
+  <si>
+    <t>3.04.07.01</t>
+  </si>
+  <si>
+    <t>3.04.07.02</t>
+  </si>
+  <si>
+    <t>3.04.07.03</t>
+  </si>
+  <si>
+    <t>3.04.08</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>3.06</t>
+  </si>
+  <si>
+    <t>3.06.01</t>
+  </si>
+  <si>
+    <t>3.06.02</t>
+  </si>
+  <si>
+    <t>3.07</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>3.09</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>3.11</t>
+  </si>
+  <si>
+    <t>3.11.01</t>
+  </si>
+  <si>
+    <t>3.11.02</t>
+  </si>
+  <si>
+    <t>3.99</t>
+  </si>
+  <si>
+    <t>3.99.01</t>
+  </si>
+  <si>
+    <t>3.99.01.01</t>
+  </si>
+  <si>
+    <t>3.99.01.02</t>
+  </si>
+  <si>
+    <t>3.99.02</t>
+  </si>
+  <si>
+    <t>3.99.02.01</t>
+  </si>
+  <si>
+    <t>3.99.02.02</t>
+  </si>
+  <si>
+    <t>Receitas de Intermediação Financeira</t>
+  </si>
+  <si>
+    <t>Receita de Juros e Similares</t>
+  </si>
+  <si>
+    <t>Ganhos / (Perdas) Líquidos de Operações de Câmbio</t>
+  </si>
+  <si>
+    <t>Ganhos / (Perdas) Líquidos de Ativos Financeiros ao VJORA</t>
+  </si>
+  <si>
+    <t>Ganhos / (Perda) Líquidos de Ativos e Passivos Financeiros ao valor justo por meio do resultado</t>
+  </si>
+  <si>
+    <t>Despesas de Intermediação Financeira</t>
+  </si>
+  <si>
+    <t>Despesa de Juros e Similares</t>
+  </si>
+  <si>
+    <t>Resultado Bruto de Intermediação Financeira</t>
+  </si>
+  <si>
+    <t>Outras Despesas e Receitas Operacionais</t>
+  </si>
+  <si>
+    <t>Despesa de Provisão para Perda Esperada para Risco de Crédito</t>
+  </si>
+  <si>
+    <t>Perda Esperada de Empréstimos e Adiantamentos</t>
+  </si>
+  <si>
+    <t>Perda Esperada com Demais Ativos Financeiros</t>
+  </si>
+  <si>
+    <t>Receitas de Prestação de Serviços</t>
+  </si>
+  <si>
+    <t>Despesas com Pessoal</t>
+  </si>
+  <si>
+    <t>Outras Despesas de Administrativas</t>
+  </si>
+  <si>
+    <t>Despesas Tributárias</t>
+  </si>
+  <si>
+    <t>Outras Receitas Operacionais</t>
+  </si>
+  <si>
+    <t>Receita de seguros e previdência</t>
+  </si>
+  <si>
+    <t>Outras Despesas Operacionais</t>
+  </si>
+  <si>
+    <t>Depreciação e Amortização</t>
+  </si>
+  <si>
+    <t>Despesa de seguros e previdência</t>
+  </si>
+  <si>
+    <t>Outras Receitas / (Despesas) Operacionais</t>
+  </si>
+  <si>
+    <t>Resultado da Equivalência Patrimonial</t>
+  </si>
+  <si>
+    <t>Resultado antes dos Tributos sobre o Lucro</t>
+  </si>
+  <si>
+    <t>Imposto de Renda e Contribuição Social sobre o Lucro</t>
+  </si>
+  <si>
+    <t>Corrente</t>
+  </si>
+  <si>
+    <t>Diferido</t>
+  </si>
+  <si>
+    <t>Lucro ou Prejuízo das Operações Continuadas</t>
+  </si>
+  <si>
+    <t>Resultado Líquido das Operações Descontinuadas</t>
+  </si>
+  <si>
+    <t>Lucro ou Prejuízo antes das Participações e Contribuições Estatutárias</t>
+  </si>
+  <si>
+    <t>Participações nos Lucros e Contribuições Estatutárias</t>
+  </si>
+  <si>
+    <t>Lucro ou Prejuízo Líquido Consolidado do Período</t>
+  </si>
+  <si>
+    <t>Atribuído aos Sócios da Empresa Controladora</t>
+  </si>
+  <si>
+    <t>Atribuído aos Sócios não Controladores</t>
+  </si>
+  <si>
+    <t>Lucro por Ação (R$/Ação)</t>
+  </si>
+  <si>
+    <t>Lucro Básico por Ação</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>Lucro Diluído por Ação</t>
   </si>
 </sst>
 </file>
@@ -665,7 +1462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -710,13 +1507,13 @@
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>5</v>
@@ -724,702 +1521,702 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E5">
-        <v>1927523249</v>
+        <v>21009233</v>
       </c>
       <c r="F5">
-        <v>1956078468</v>
+        <v>17683276</v>
       </c>
       <c r="G5">
-        <v>1927523249</v>
+        <v>1260339</v>
       </c>
       <c r="H5">
-        <v>2003850390</v>
+        <v>46252491</v>
       </c>
       <c r="I5">
-        <v>1927523249</v>
+        <v>80830533</v>
       </c>
       <c r="J5">
-        <v>2017703133</v>
+        <v>39973851</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E6">
-        <v>15542220</v>
+        <v>23785697</v>
       </c>
       <c r="F6">
-        <v>26496198</v>
+        <v>26030548</v>
       </c>
       <c r="G6">
-        <v>15542220</v>
+        <v>46459538</v>
       </c>
       <c r="H6">
-        <v>21122339</v>
+        <v>52934314</v>
       </c>
       <c r="I6">
-        <v>15542220</v>
+        <v>72079554</v>
       </c>
       <c r="J6">
-        <v>16442559</v>
+        <v>77891173</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E7">
-        <v>1323281107</v>
+        <v>6275587</v>
       </c>
       <c r="F7">
-        <v>1330853515</v>
+        <v>4300464</v>
       </c>
       <c r="G7">
-        <v>1323281107</v>
+        <v>9326529</v>
       </c>
       <c r="H7">
-        <v>1377228328</v>
+        <v>8029274</v>
       </c>
       <c r="I7">
-        <v>1323281107</v>
+        <v>11384394</v>
       </c>
       <c r="J7">
-        <v>1376184784</v>
+        <v>13605369</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E8">
-        <v>625792757</v>
+        <v>17510110</v>
       </c>
       <c r="F8">
-        <v>609717276</v>
+        <v>21730084</v>
       </c>
       <c r="G8">
-        <v>625792757</v>
+        <v>37133009</v>
       </c>
       <c r="H8">
-        <v>619007422</v>
+        <v>44905040</v>
       </c>
       <c r="I8">
-        <v>625792757</v>
+        <v>60695160</v>
       </c>
       <c r="J8">
-        <v>616723671</v>
+        <v>64285804</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E9">
-        <v>272404788</v>
+        <v>-6022098</v>
       </c>
       <c r="F9">
-        <v>284197663</v>
+        <v>-9924834</v>
       </c>
       <c r="G9">
-        <v>272404788</v>
+        <v>-49221848</v>
       </c>
       <c r="H9">
-        <v>294603813</v>
+        <v>-12119964</v>
       </c>
       <c r="I9">
-        <v>272404788</v>
+        <v>4514588</v>
       </c>
       <c r="J9">
-        <v>280297259</v>
+        <v>-47335010</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>-1519094</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>4657138</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>-7203562</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3096852</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>-13691500</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>2996925</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E11">
-        <v>425083562</v>
+        <v>-4848064</v>
       </c>
       <c r="F11">
-        <v>436938576</v>
+        <v>3148870</v>
       </c>
       <c r="G11">
-        <v>425083562</v>
+        <v>-16388725</v>
       </c>
       <c r="H11">
-        <v>463617093</v>
+        <v>19343870</v>
       </c>
       <c r="I11">
-        <v>425083562</v>
+        <v>9071543</v>
       </c>
       <c r="J11">
-        <v>479163854</v>
+        <v>29036888</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E12">
-        <v>370606996</v>
+        <v>-19248112</v>
       </c>
       <c r="F12">
-        <v>378972071</v>
+        <v>-41377398</v>
       </c>
       <c r="G12">
-        <v>370606996</v>
+        <v>-38142058</v>
       </c>
       <c r="H12">
-        <v>385651245</v>
+        <v>-98676407</v>
       </c>
       <c r="I12">
-        <v>370606996</v>
+        <v>-72630815</v>
       </c>
       <c r="J12">
-        <v>395635506</v>
+        <v>-158202164</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E13">
-        <v>3476930</v>
+        <v>-17794477</v>
       </c>
       <c r="F13">
-        <v>3461352</v>
+        <v>11061807</v>
       </c>
       <c r="G13">
-        <v>3476930</v>
+        <v>-61829789</v>
       </c>
       <c r="H13">
-        <v>3631500</v>
+        <v>10917733</v>
       </c>
       <c r="I13">
-        <v>3476930</v>
+        <v>-39581455</v>
       </c>
       <c r="J13">
-        <v>3699356</v>
+        <v>20298565</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E14">
-        <v>344792222</v>
+        <v>-15105645</v>
       </c>
       <c r="F14">
-        <v>353642240</v>
+        <v>-21441802</v>
       </c>
       <c r="G14">
-        <v>344792222</v>
+        <v>-28875395</v>
       </c>
       <c r="H14">
-        <v>361202412</v>
+        <v>-43984917</v>
       </c>
       <c r="I14">
-        <v>344792222</v>
+        <v>-31406878</v>
       </c>
       <c r="J14">
-        <v>371877346</v>
+        <v>-56294763</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E15">
-        <v>22337844</v>
+        <v>21255874</v>
       </c>
       <c r="F15">
-        <v>21868479</v>
+        <v>18405033</v>
       </c>
       <c r="G15">
-        <v>22337844</v>
+        <v>41949513</v>
       </c>
       <c r="H15">
-        <v>20817333</v>
+        <v>49847304</v>
       </c>
       <c r="I15">
-        <v>22337844</v>
+        <v>67297109</v>
       </c>
       <c r="J15">
-        <v>20058804</v>
+        <v>52913561</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E16">
-        <v>3154183</v>
+        <v>7740650</v>
       </c>
       <c r="F16">
-        <v>2462057</v>
+        <v>-4110010</v>
       </c>
       <c r="G16">
-        <v>3154183</v>
+        <v>26015867</v>
       </c>
       <c r="H16">
-        <v>2634765</v>
+        <v>15947779</v>
       </c>
       <c r="I16">
-        <v>3154183</v>
+        <v>59043532</v>
       </c>
       <c r="J16">
-        <v>3322718</v>
+        <v>23230494</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E17">
-        <v>1546656</v>
+        <v>12818017</v>
       </c>
       <c r="F17">
-        <v>1299467</v>
+        <v>10953978</v>
       </c>
       <c r="G17">
-        <v>1546656</v>
+        <v>10813890</v>
       </c>
       <c r="H17">
-        <v>1798327</v>
+        <v>5580119</v>
       </c>
       <c r="I17">
-        <v>1546656</v>
+        <v>8748012</v>
       </c>
       <c r="J17">
-        <v>2413835</v>
+        <v>900339</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E18">
-        <v>1607527</v>
+        <v>9049</v>
       </c>
       <c r="F18">
-        <v>1162590</v>
+        <v>-2889773</v>
       </c>
       <c r="G18">
-        <v>1607527</v>
+        <v>-725230</v>
       </c>
       <c r="H18">
-        <v>836438</v>
+        <v>-8749519</v>
       </c>
       <c r="I18">
-        <v>1607527</v>
+        <v>-2362053</v>
       </c>
       <c r="J18">
-        <v>908883</v>
+        <v>-11466870</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E19">
-        <v>47924619</v>
+        <v>-1931485</v>
       </c>
       <c r="F19">
-        <v>50795719</v>
+        <v>-1886908</v>
       </c>
       <c r="G19">
-        <v>47924619</v>
+        <v>-3668806</v>
       </c>
       <c r="H19">
-        <v>52062507</v>
+        <v>-4207804</v>
       </c>
       <c r="I19">
-        <v>47924619</v>
+        <v>-5667194</v>
       </c>
       <c r="J19">
-        <v>58464008</v>
+        <v>-6681053</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>12601189</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>13554231</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>28832447</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>38765026</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>25694287</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>55933068</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>3245634</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1577562</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>4022649</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5438141</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4236391</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9417688</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>26328306</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>23671789</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>52476993</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>48696361</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>77880221</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>74688539</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E23">
-        <v>167014124</v>
+        <v>-20797844</v>
       </c>
       <c r="F23">
-        <v>166498908</v>
+        <v>-19958425</v>
       </c>
       <c r="G23">
-        <v>167014124</v>
+        <v>-44214262</v>
       </c>
       <c r="H23">
-        <v>165151206</v>
+        <v>-39592334</v>
       </c>
       <c r="I23">
-        <v>167014124</v>
+        <v>-67752044</v>
       </c>
       <c r="J23">
-        <v>167653558</v>
+        <v>-60140476</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E24">
-        <v>166330965</v>
+        <v>-2284828</v>
       </c>
       <c r="F24">
-        <v>165864572</v>
+        <v>-2135802</v>
       </c>
       <c r="G24">
-        <v>166330965</v>
+        <v>-4240082</v>
       </c>
       <c r="H24">
-        <v>164632437</v>
+        <v>-3665886</v>
       </c>
       <c r="I24">
-        <v>166330965</v>
+        <v>-5891786</v>
       </c>
       <c r="J24">
-        <v>167127865</v>
+        <v>-5130375</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E25">
-        <v>87100000</v>
+        <v>51513031</v>
       </c>
       <c r="F25">
-        <v>87100000</v>
+        <v>2780314</v>
       </c>
       <c r="G25">
-        <v>87100000</v>
+        <v>66567411</v>
       </c>
       <c r="H25">
-        <v>87100000</v>
+        <v>-3801715</v>
       </c>
       <c r="I25">
-        <v>87100000</v>
+        <v>76441941</v>
       </c>
       <c r="J25">
-        <v>87100000</v>
+        <v>4697511</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E26">
-        <v>106469</v>
+        <v>-84767</v>
       </c>
       <c r="F26">
-        <v>106469</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>106469</v>
+        <v>-84767</v>
       </c>
       <c r="H26">
-        <v>106469</v>
+        <v>-211140</v>
       </c>
       <c r="I26">
-        <v>106469</v>
+        <v>-84767</v>
       </c>
       <c r="J26">
-        <v>-336266</v>
+        <v>-211140</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>118037</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>151946</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>247568</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>295640</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>377386</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>436159</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E28">
-        <v>106469</v>
+        <v>-14333</v>
       </c>
       <c r="F28">
-        <v>106469</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>106469</v>
+        <v>-14333</v>
       </c>
       <c r="H28">
-        <v>106469</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>106469</v>
+        <v>-14333</v>
       </c>
       <c r="J28">
-        <v>106469</v>
+        <v>-1159572</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1444,361 +2241,361 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>72439</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>72468</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>806570</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>292228</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>920445</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>292228</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>-709109</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>-383241</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>-823205</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>-1728008</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>-1244105</v>
       </c>
       <c r="J31">
-        <v>-442735</v>
+        <v>-1924241</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>631218</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>177312</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>751878</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>333174</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1034570</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>519153</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E33">
-        <v>76730043</v>
+        <v>-1834782</v>
       </c>
       <c r="F33">
-        <v>78031915</v>
+        <v>-1373809</v>
       </c>
       <c r="G33">
-        <v>76730043</v>
+        <v>-2712568</v>
       </c>
       <c r="H33">
-        <v>79889088</v>
+        <v>-2491653</v>
       </c>
       <c r="I33">
-        <v>76730043</v>
+        <v>-3849742</v>
       </c>
       <c r="J33">
-        <v>82708074</v>
+        <v>-4078470</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E34">
-        <v>13340705</v>
+        <v>13360885</v>
       </c>
       <c r="F34">
-        <v>13551249</v>
+        <v>8061688</v>
       </c>
       <c r="G34">
-        <v>13340705</v>
+        <v>24078149</v>
       </c>
       <c r="H34">
-        <v>13787045</v>
+        <v>14733751</v>
       </c>
       <c r="I34">
-        <v>13340705</v>
+        <v>33393300</v>
       </c>
       <c r="J34">
-        <v>14048316</v>
+        <v>22460331</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E35">
-        <v>63389338</v>
+        <v>7773604</v>
       </c>
       <c r="F35">
-        <v>64774064</v>
+        <v>14227995</v>
       </c>
       <c r="G35">
-        <v>63389338</v>
+        <v>12316237</v>
       </c>
       <c r="H35">
-        <v>66544778</v>
+        <v>39066018</v>
       </c>
       <c r="I35">
-        <v>63389338</v>
+        <v>29639329</v>
       </c>
       <c r="J35">
-        <v>68659758</v>
+        <v>65910707</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>-10457559</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>-16301846</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>-26176604</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>-34070918</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>-41475369</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>-56544790</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>-15201721</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>-16649702</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>-18603558</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>-49522149</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>-32435121</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>-67269489</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>57859119</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>14797503</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>76782044</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>29501342</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>90180348</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>46266635</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>-10960719</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>-1057438</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>-21208767</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>-14341364</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>-31826560</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>-18393637</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>19210620</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>22110088</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>34800557</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>30492604</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>61822436</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>41091223</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>-12012342</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>-16835596</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>-32671342</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>-29110100</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>-59818613</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>-39487343</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>-293398</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>531000</v>
       </c>
       <c r="H42">
-        <v>-442735</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1129800</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -1808,140 +2605,280 @@
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E43">
-        <v>-765320</v>
+        <v>-2504671</v>
       </c>
       <c r="F43">
-        <v>-830542</v>
+        <v>-297329</v>
       </c>
       <c r="G43">
-        <v>-765320</v>
+        <v>-2560471</v>
       </c>
       <c r="H43">
-        <v>-1410560</v>
+        <v>-297328</v>
       </c>
       <c r="I43">
-        <v>-765320</v>
+        <v>-3555122</v>
       </c>
       <c r="J43">
-        <v>-1737733</v>
+        <v>-312270</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>10361</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>-130648</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>826</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>-315469</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>-19750</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>-384011</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>-9572455</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>-4739529</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>-14287665</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>-8567384</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>-21705133</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>-11879623</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E46">
-        <v>3159773</v>
+        <v>-5675916</v>
       </c>
       <c r="F46">
-        <v>1456730</v>
+        <v>-504098</v>
       </c>
       <c r="G46">
-        <v>3159773</v>
+        <v>-6179307</v>
       </c>
       <c r="H46">
-        <v>-1052560</v>
+        <v>-5370194</v>
       </c>
       <c r="I46">
-        <v>3159773</v>
+        <v>-8424610</v>
       </c>
       <c r="J46">
-        <v>-606210</v>
+        <v>-5872449</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E47">
-        <v>683159</v>
+        <v>-416316</v>
       </c>
       <c r="F47">
-        <v>634336</v>
+        <v>-366928</v>
       </c>
       <c r="G47">
-        <v>683159</v>
+        <v>-842365</v>
       </c>
       <c r="H47">
-        <v>518769</v>
+        <v>-730758</v>
       </c>
       <c r="I47">
-        <v>683159</v>
+        <v>-1255568</v>
       </c>
       <c r="J47">
-        <v>525693</v>
+        <v>-1106429</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>-293398</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>-442735</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>-442735</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49">
+        <v>198302</v>
+      </c>
+      <c r="F49">
+        <v>-190229</v>
+      </c>
+      <c r="G49">
+        <v>111450</v>
+      </c>
+      <c r="H49">
+        <v>-103190</v>
+      </c>
+      <c r="I49">
+        <v>167361</v>
+      </c>
+      <c r="J49">
+        <v>-198899</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50">
+        <v>61759847</v>
+      </c>
+      <c r="F50">
+        <v>19215923</v>
+      </c>
+      <c r="G50">
+        <v>46730433</v>
+      </c>
+      <c r="H50">
+        <v>28006222</v>
+      </c>
+      <c r="I50">
+        <v>125613275</v>
+      </c>
+      <c r="J50">
+        <v>26078826</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51">
+        <v>126185421</v>
+      </c>
+      <c r="F51">
+        <v>186790580</v>
+      </c>
+      <c r="G51">
+        <v>126185421</v>
+      </c>
+      <c r="H51">
+        <v>186790580</v>
+      </c>
+      <c r="I51">
+        <v>126185421</v>
+      </c>
+      <c r="J51">
+        <v>186790580</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52">
+        <v>187945268</v>
+      </c>
+      <c r="F52">
+        <v>206006503</v>
+      </c>
+      <c r="G52">
+        <v>172915854</v>
+      </c>
+      <c r="H52">
+        <v>214796802</v>
+      </c>
+      <c r="I52">
+        <v>251798696</v>
+      </c>
+      <c r="J52">
+        <v>212869406</v>
       </c>
     </row>
   </sheetData>
@@ -1950,8 +2887,4298 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A5:A47"/>
-    <mergeCell ref="B5:B47"/>
+    <mergeCell ref="A5:A52"/>
+    <mergeCell ref="B5:B52"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5">
+        <v>1927523249</v>
+      </c>
+      <c r="G5">
+        <v>1956078468</v>
+      </c>
+      <c r="H5">
+        <v>1927523249</v>
+      </c>
+      <c r="I5">
+        <v>2003850390</v>
+      </c>
+      <c r="J5">
+        <v>1927523249</v>
+      </c>
+      <c r="K5">
+        <v>2017703133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6">
+        <v>186790580</v>
+      </c>
+      <c r="G6">
+        <v>206006503</v>
+      </c>
+      <c r="H6">
+        <v>186790580</v>
+      </c>
+      <c r="I6">
+        <v>214796802</v>
+      </c>
+      <c r="J6">
+        <v>186790580</v>
+      </c>
+      <c r="K6">
+        <v>212869406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7">
+        <v>17332144</v>
+      </c>
+      <c r="G7">
+        <v>19378135</v>
+      </c>
+      <c r="H7">
+        <v>17332144</v>
+      </c>
+      <c r="I7">
+        <v>18760947</v>
+      </c>
+      <c r="J7">
+        <v>17332144</v>
+      </c>
+      <c r="K7">
+        <v>17380912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8">
+        <v>169458436</v>
+      </c>
+      <c r="G8">
+        <v>186628368</v>
+      </c>
+      <c r="H8">
+        <v>169458436</v>
+      </c>
+      <c r="I8">
+        <v>196035855</v>
+      </c>
+      <c r="J8">
+        <v>169458436</v>
+      </c>
+      <c r="K8">
+        <v>195488494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9">
+        <v>1581481790</v>
+      </c>
+      <c r="G9">
+        <v>1588061503</v>
+      </c>
+      <c r="H9">
+        <v>1581481790</v>
+      </c>
+      <c r="I9">
+        <v>1617887982</v>
+      </c>
+      <c r="J9">
+        <v>1581481790</v>
+      </c>
+      <c r="K9">
+        <v>1632225264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10">
+        <v>109516537</v>
+      </c>
+      <c r="G10">
+        <v>104859399</v>
+      </c>
+      <c r="H10">
+        <v>109516537</v>
+      </c>
+      <c r="I10">
+        <v>106419684</v>
+      </c>
+      <c r="J10">
+        <v>109516537</v>
+      </c>
+      <c r="K10">
+        <v>106519611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11">
+        <v>387598377</v>
+      </c>
+      <c r="G11">
+        <v>376536570</v>
+      </c>
+      <c r="H11">
+        <v>387598377</v>
+      </c>
+      <c r="I11">
+        <v>371526664</v>
+      </c>
+      <c r="J11">
+        <v>387598377</v>
+      </c>
+      <c r="K11">
+        <v>362145832</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12">
+        <v>372185028</v>
+      </c>
+      <c r="G12">
+        <v>352793468</v>
+      </c>
+      <c r="H12">
+        <v>372185028</v>
+      </c>
+      <c r="I12">
+        <v>351310496</v>
+      </c>
+      <c r="J12">
+        <v>372185028</v>
+      </c>
+      <c r="K12">
+        <v>346021645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F13">
+        <v>15413349</v>
+      </c>
+      <c r="G13">
+        <v>23743102</v>
+      </c>
+      <c r="H13">
+        <v>15413349</v>
+      </c>
+      <c r="I13">
+        <v>20216168</v>
+      </c>
+      <c r="J13">
+        <v>15413349</v>
+      </c>
+      <c r="K13">
+        <v>16124187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14">
+        <v>212849606</v>
+      </c>
+      <c r="G14">
+        <v>215742891</v>
+      </c>
+      <c r="H14">
+        <v>212849606</v>
+      </c>
+      <c r="I14">
+        <v>231160613</v>
+      </c>
+      <c r="J14">
+        <v>212849606</v>
+      </c>
+      <c r="K14">
+        <v>230268102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15">
+        <v>212849606</v>
+      </c>
+      <c r="G15">
+        <v>215742891</v>
+      </c>
+      <c r="H15">
+        <v>212849606</v>
+      </c>
+      <c r="I15">
+        <v>231160613</v>
+      </c>
+      <c r="J15">
+        <v>212849606</v>
+      </c>
+      <c r="K15">
+        <v>230268102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F16">
+        <v>871517270</v>
+      </c>
+      <c r="G16">
+        <v>890922643</v>
+      </c>
+      <c r="H16">
+        <v>871517270</v>
+      </c>
+      <c r="I16">
+        <v>908781021</v>
+      </c>
+      <c r="J16">
+        <v>871517270</v>
+      </c>
+      <c r="K16">
+        <v>933291719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F17">
+        <v>18503310</v>
+      </c>
+      <c r="G17">
+        <v>19562504</v>
+      </c>
+      <c r="H17">
+        <v>18503310</v>
+      </c>
+      <c r="I17">
+        <v>17718102</v>
+      </c>
+      <c r="J17">
+        <v>18503310</v>
+      </c>
+      <c r="K17">
+        <v>19065314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F18">
+        <v>41346204</v>
+      </c>
+      <c r="G18">
+        <v>37139623</v>
+      </c>
+      <c r="H18">
+        <v>41346204</v>
+      </c>
+      <c r="I18">
+        <v>22787542</v>
+      </c>
+      <c r="J18">
+        <v>41346204</v>
+      </c>
+      <c r="K18">
+        <v>11747313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F19">
+        <v>175207077</v>
+      </c>
+      <c r="G19">
+        <v>175590912</v>
+      </c>
+      <c r="H19">
+        <v>175207077</v>
+      </c>
+      <c r="I19">
+        <v>171856975</v>
+      </c>
+      <c r="J19">
+        <v>175207077</v>
+      </c>
+      <c r="K19">
+        <v>171236474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F20">
+        <v>625292326</v>
+      </c>
+      <c r="G20">
+        <v>633027449</v>
+      </c>
+      <c r="H20">
+        <v>625292326</v>
+      </c>
+      <c r="I20">
+        <v>654473166</v>
+      </c>
+      <c r="J20">
+        <v>625292326</v>
+      </c>
+      <c r="K20">
+        <v>684719134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F21">
+        <v>-50138736</v>
+      </c>
+      <c r="G21">
+        <v>-47665625</v>
+      </c>
+      <c r="H21">
+        <v>-50138736</v>
+      </c>
+      <c r="I21">
+        <v>-45186082</v>
+      </c>
+      <c r="J21">
+        <v>-50138736</v>
+      </c>
+      <c r="K21">
+        <v>-45647806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F22">
+        <v>4394373</v>
+      </c>
+      <c r="G22">
+        <v>4797713</v>
+      </c>
+      <c r="H22">
+        <v>4394373</v>
+      </c>
+      <c r="I22">
+        <v>5156648</v>
+      </c>
+      <c r="J22">
+        <v>4394373</v>
+      </c>
+      <c r="K22">
+        <v>5646965</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F23">
+        <v>-46144</v>
+      </c>
+      <c r="G23">
+        <v>-46082</v>
+      </c>
+      <c r="H23">
+        <v>-46144</v>
+      </c>
+      <c r="I23">
+        <v>-50273</v>
+      </c>
+      <c r="J23">
+        <v>-46144</v>
+      </c>
+      <c r="K23">
+        <v>-52467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F24">
+        <v>56958860</v>
+      </c>
+      <c r="G24">
+        <v>68516149</v>
+      </c>
+      <c r="H24">
+        <v>56958860</v>
+      </c>
+      <c r="I24">
+        <v>82024943</v>
+      </c>
+      <c r="J24">
+        <v>56958860</v>
+      </c>
+      <c r="K24">
+        <v>86576792</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F25">
+        <v>105482942</v>
+      </c>
+      <c r="G25">
+        <v>105831775</v>
+      </c>
+      <c r="H25">
+        <v>105482942</v>
+      </c>
+      <c r="I25">
+        <v>109895834</v>
+      </c>
+      <c r="J25">
+        <v>105482942</v>
+      </c>
+      <c r="K25">
+        <v>110910266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F26">
+        <v>12964018</v>
+      </c>
+      <c r="G26">
+        <v>10556315</v>
+      </c>
+      <c r="H26">
+        <v>12964018</v>
+      </c>
+      <c r="I26">
+        <v>11970509</v>
+      </c>
+      <c r="J26">
+        <v>12964018</v>
+      </c>
+      <c r="K26">
+        <v>11824945</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F27">
+        <v>92518924</v>
+      </c>
+      <c r="G27">
+        <v>95275460</v>
+      </c>
+      <c r="H27">
+        <v>92518924</v>
+      </c>
+      <c r="I27">
+        <v>97925325</v>
+      </c>
+      <c r="J27">
+        <v>92518924</v>
+      </c>
+      <c r="K27">
+        <v>99085321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F29">
+        <v>10925942</v>
+      </c>
+      <c r="G29">
+        <v>13179180</v>
+      </c>
+      <c r="H29">
+        <v>10925942</v>
+      </c>
+      <c r="I29">
+        <v>17065498</v>
+      </c>
+      <c r="J29">
+        <v>10925942</v>
+      </c>
+      <c r="K29">
+        <v>17570017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F30">
+        <v>1328530</v>
+      </c>
+      <c r="G30">
+        <v>1354772</v>
+      </c>
+      <c r="H30">
+        <v>1328530</v>
+      </c>
+      <c r="I30">
+        <v>3468665</v>
+      </c>
+      <c r="J30">
+        <v>1328530</v>
+      </c>
+      <c r="K30">
+        <v>3526030</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32">
+        <v>9597412</v>
+      </c>
+      <c r="G32">
+        <v>11824408</v>
+      </c>
+      <c r="H32">
+        <v>9597412</v>
+      </c>
+      <c r="I32">
+        <v>13596833</v>
+      </c>
+      <c r="J32">
+        <v>9597412</v>
+      </c>
+      <c r="K32">
+        <v>14043987</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F33">
+        <v>9616840</v>
+      </c>
+      <c r="G33">
+        <v>9884058</v>
+      </c>
+      <c r="H33">
+        <v>9616840</v>
+      </c>
+      <c r="I33">
+        <v>10465407</v>
+      </c>
+      <c r="J33">
+        <v>9616840</v>
+      </c>
+      <c r="K33">
+        <v>10741603</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34">
+        <v>8188993</v>
+      </c>
+      <c r="G34">
+        <v>8204818</v>
+      </c>
+      <c r="H34">
+        <v>8188993</v>
+      </c>
+      <c r="I34">
+        <v>8392957</v>
+      </c>
+      <c r="J34">
+        <v>8188993</v>
+      </c>
+      <c r="K34">
+        <v>8463598</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F35">
+        <v>1427847</v>
+      </c>
+      <c r="G35">
+        <v>1679240</v>
+      </c>
+      <c r="H35">
+        <v>1427847</v>
+      </c>
+      <c r="I35">
+        <v>2072450</v>
+      </c>
+      <c r="J35">
+        <v>1427847</v>
+      </c>
+      <c r="K35">
+        <v>2278005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F38">
+        <v>11118009</v>
+      </c>
+      <c r="G38">
+        <v>10667553</v>
+      </c>
+      <c r="H38">
+        <v>11118009</v>
+      </c>
+      <c r="I38">
+        <v>11125665</v>
+      </c>
+      <c r="J38">
+        <v>11118009</v>
+      </c>
+      <c r="K38">
+        <v>10192624</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F39">
+        <v>11118009</v>
+      </c>
+      <c r="G39">
+        <v>10667553</v>
+      </c>
+      <c r="H39">
+        <v>11118009</v>
+      </c>
+      <c r="I39">
+        <v>11125665</v>
+      </c>
+      <c r="J39">
+        <v>11118009</v>
+      </c>
+      <c r="K39">
+        <v>10192624</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F42">
+        <v>22107146</v>
+      </c>
+      <c r="G42">
+        <v>22447896</v>
+      </c>
+      <c r="H42">
+        <v>22107146</v>
+      </c>
+      <c r="I42">
+        <v>22613202</v>
+      </c>
+      <c r="J42">
+        <v>22107146</v>
+      </c>
+      <c r="K42">
+        <v>23193953</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F43">
+        <v>22107146</v>
+      </c>
+      <c r="G43">
+        <v>22447896</v>
+      </c>
+      <c r="H43">
+        <v>22107146</v>
+      </c>
+      <c r="I43">
+        <v>22613202</v>
+      </c>
+      <c r="J43">
+        <v>22107146</v>
+      </c>
+      <c r="K43">
+        <v>23193953</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F46">
+        <v>1927523249</v>
+      </c>
+      <c r="G46">
+        <v>1956078468</v>
+      </c>
+      <c r="H46">
+        <v>1927523249</v>
+      </c>
+      <c r="I46">
+        <v>2003850390</v>
+      </c>
+      <c r="J46">
+        <v>1927523249</v>
+      </c>
+      <c r="K46">
+        <v>2017703133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F47">
+        <v>15542220</v>
+      </c>
+      <c r="G47">
+        <v>26496198</v>
+      </c>
+      <c r="H47">
+        <v>15542220</v>
+      </c>
+      <c r="I47">
+        <v>21122339</v>
+      </c>
+      <c r="J47">
+        <v>15542220</v>
+      </c>
+      <c r="K47">
+        <v>16442559</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F48">
+        <v>1323281107</v>
+      </c>
+      <c r="G48">
+        <v>1330853515</v>
+      </c>
+      <c r="H48">
+        <v>1323281107</v>
+      </c>
+      <c r="I48">
+        <v>1377228328</v>
+      </c>
+      <c r="J48">
+        <v>1323281107</v>
+      </c>
+      <c r="K48">
+        <v>1376184784</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F49">
+        <v>625792757</v>
+      </c>
+      <c r="G49">
+        <v>609717276</v>
+      </c>
+      <c r="H49">
+        <v>625792757</v>
+      </c>
+      <c r="I49">
+        <v>619007422</v>
+      </c>
+      <c r="J49">
+        <v>625792757</v>
+      </c>
+      <c r="K49">
+        <v>616723671</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F50">
+        <v>272404788</v>
+      </c>
+      <c r="G50">
+        <v>284197663</v>
+      </c>
+      <c r="H50">
+        <v>272404788</v>
+      </c>
+      <c r="I50">
+        <v>294603813</v>
+      </c>
+      <c r="J50">
+        <v>272404788</v>
+      </c>
+      <c r="K50">
+        <v>280297259</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F52">
+        <v>425083562</v>
+      </c>
+      <c r="G52">
+        <v>436938576</v>
+      </c>
+      <c r="H52">
+        <v>425083562</v>
+      </c>
+      <c r="I52">
+        <v>463617093</v>
+      </c>
+      <c r="J52">
+        <v>425083562</v>
+      </c>
+      <c r="K52">
+        <v>479163854</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F53">
+        <v>370606996</v>
+      </c>
+      <c r="G53">
+        <v>378972071</v>
+      </c>
+      <c r="H53">
+        <v>370606996</v>
+      </c>
+      <c r="I53">
+        <v>385651245</v>
+      </c>
+      <c r="J53">
+        <v>370606996</v>
+      </c>
+      <c r="K53">
+        <v>395635506</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F54">
+        <v>3476930</v>
+      </c>
+      <c r="G54">
+        <v>3461352</v>
+      </c>
+      <c r="H54">
+        <v>3476930</v>
+      </c>
+      <c r="I54">
+        <v>3631500</v>
+      </c>
+      <c r="J54">
+        <v>3476930</v>
+      </c>
+      <c r="K54">
+        <v>3699356</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F55">
+        <v>344792222</v>
+      </c>
+      <c r="G55">
+        <v>353642240</v>
+      </c>
+      <c r="H55">
+        <v>344792222</v>
+      </c>
+      <c r="I55">
+        <v>361202412</v>
+      </c>
+      <c r="J55">
+        <v>344792222</v>
+      </c>
+      <c r="K55">
+        <v>371877346</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F56">
+        <v>22337844</v>
+      </c>
+      <c r="G56">
+        <v>21868479</v>
+      </c>
+      <c r="H56">
+        <v>22337844</v>
+      </c>
+      <c r="I56">
+        <v>20817333</v>
+      </c>
+      <c r="J56">
+        <v>22337844</v>
+      </c>
+      <c r="K56">
+        <v>20058804</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F57">
+        <v>3154183</v>
+      </c>
+      <c r="G57">
+        <v>2462057</v>
+      </c>
+      <c r="H57">
+        <v>3154183</v>
+      </c>
+      <c r="I57">
+        <v>2634765</v>
+      </c>
+      <c r="J57">
+        <v>3154183</v>
+      </c>
+      <c r="K57">
+        <v>3322718</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F58">
+        <v>1546656</v>
+      </c>
+      <c r="G58">
+        <v>1299467</v>
+      </c>
+      <c r="H58">
+        <v>1546656</v>
+      </c>
+      <c r="I58">
+        <v>1798327</v>
+      </c>
+      <c r="J58">
+        <v>1546656</v>
+      </c>
+      <c r="K58">
+        <v>2413835</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F59">
+        <v>1607527</v>
+      </c>
+      <c r="G59">
+        <v>1162590</v>
+      </c>
+      <c r="H59">
+        <v>1607527</v>
+      </c>
+      <c r="I59">
+        <v>836438</v>
+      </c>
+      <c r="J59">
+        <v>1607527</v>
+      </c>
+      <c r="K59">
+        <v>908883</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F60">
+        <v>47924619</v>
+      </c>
+      <c r="G60">
+        <v>50795719</v>
+      </c>
+      <c r="H60">
+        <v>47924619</v>
+      </c>
+      <c r="I60">
+        <v>52062507</v>
+      </c>
+      <c r="J60">
+        <v>47924619</v>
+      </c>
+      <c r="K60">
+        <v>58464008</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F64">
+        <v>167014124</v>
+      </c>
+      <c r="G64">
+        <v>166498908</v>
+      </c>
+      <c r="H64">
+        <v>167014124</v>
+      </c>
+      <c r="I64">
+        <v>165151206</v>
+      </c>
+      <c r="J64">
+        <v>167014124</v>
+      </c>
+      <c r="K64">
+        <v>167653558</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F65">
+        <v>166330965</v>
+      </c>
+      <c r="G65">
+        <v>165864572</v>
+      </c>
+      <c r="H65">
+        <v>166330965</v>
+      </c>
+      <c r="I65">
+        <v>164632437</v>
+      </c>
+      <c r="J65">
+        <v>166330965</v>
+      </c>
+      <c r="K65">
+        <v>167127865</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F66">
+        <v>87100000</v>
+      </c>
+      <c r="G66">
+        <v>87100000</v>
+      </c>
+      <c r="H66">
+        <v>87100000</v>
+      </c>
+      <c r="I66">
+        <v>87100000</v>
+      </c>
+      <c r="J66">
+        <v>87100000</v>
+      </c>
+      <c r="K66">
+        <v>87100000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F67">
+        <v>106469</v>
+      </c>
+      <c r="G67">
+        <v>106469</v>
+      </c>
+      <c r="H67">
+        <v>106469</v>
+      </c>
+      <c r="I67">
+        <v>106469</v>
+      </c>
+      <c r="J67">
+        <v>106469</v>
+      </c>
+      <c r="K67">
+        <v>-336266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F69">
+        <v>106469</v>
+      </c>
+      <c r="G69">
+        <v>106469</v>
+      </c>
+      <c r="H69">
+        <v>106469</v>
+      </c>
+      <c r="I69">
+        <v>106469</v>
+      </c>
+      <c r="J69">
+        <v>106469</v>
+      </c>
+      <c r="K69">
+        <v>106469</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>-442735</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F74">
+        <v>76730043</v>
+      </c>
+      <c r="G74">
+        <v>78031915</v>
+      </c>
+      <c r="H74">
+        <v>76730043</v>
+      </c>
+      <c r="I74">
+        <v>79889088</v>
+      </c>
+      <c r="J74">
+        <v>76730043</v>
+      </c>
+      <c r="K74">
+        <v>82708074</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F75">
+        <v>13340705</v>
+      </c>
+      <c r="G75">
+        <v>13551249</v>
+      </c>
+      <c r="H75">
+        <v>13340705</v>
+      </c>
+      <c r="I75">
+        <v>13787045</v>
+      </c>
+      <c r="J75">
+        <v>13340705</v>
+      </c>
+      <c r="K75">
+        <v>14048316</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F76">
+        <v>63389338</v>
+      </c>
+      <c r="G76">
+        <v>64774064</v>
+      </c>
+      <c r="H76">
+        <v>63389338</v>
+      </c>
+      <c r="I76">
+        <v>66544778</v>
+      </c>
+      <c r="J76">
+        <v>63389338</v>
+      </c>
+      <c r="K76">
+        <v>68659758</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>-293398</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>-442735</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F84">
+        <v>-765320</v>
+      </c>
+      <c r="G84">
+        <v>-830542</v>
+      </c>
+      <c r="H84">
+        <v>-765320</v>
+      </c>
+      <c r="I84">
+        <v>-1410560</v>
+      </c>
+      <c r="J84">
+        <v>-765320</v>
+      </c>
+      <c r="K84">
+        <v>-1737733</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F87">
+        <v>3159773</v>
+      </c>
+      <c r="G87">
+        <v>1456730</v>
+      </c>
+      <c r="H87">
+        <v>3159773</v>
+      </c>
+      <c r="I87">
+        <v>-1052560</v>
+      </c>
+      <c r="J87">
+        <v>3159773</v>
+      </c>
+      <c r="K87">
+        <v>-606210</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F88">
+        <v>683159</v>
+      </c>
+      <c r="G88">
+        <v>634336</v>
+      </c>
+      <c r="H88">
+        <v>683159</v>
+      </c>
+      <c r="I88">
+        <v>518769</v>
+      </c>
+      <c r="J88">
+        <v>683159</v>
+      </c>
+      <c r="K88">
+        <v>525693</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A5:A88"/>
+    <mergeCell ref="B5:B88"/>
+    <mergeCell ref="C5:C45"/>
+    <mergeCell ref="C46:C88"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="D2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E5">
+        <v>57434165</v>
+      </c>
+      <c r="F5">
+        <v>114285693</v>
+      </c>
+      <c r="G5">
+        <v>170352681</v>
+      </c>
+      <c r="H5">
+        <v>56851528</v>
+      </c>
+      <c r="I5">
+        <v>56066988</v>
+      </c>
+      <c r="J5">
+        <v>52766144</v>
+      </c>
+      <c r="K5">
+        <v>104262842</v>
+      </c>
+      <c r="L5">
+        <v>156765520</v>
+      </c>
+      <c r="M5">
+        <v>51496698</v>
+      </c>
+      <c r="N5">
+        <v>52502678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E6">
+        <v>57821227</v>
+      </c>
+      <c r="F6">
+        <v>110567937</v>
+      </c>
+      <c r="G6">
+        <v>165886995</v>
+      </c>
+      <c r="H6">
+        <v>52746710</v>
+      </c>
+      <c r="I6">
+        <v>55319058</v>
+      </c>
+      <c r="J6">
+        <v>53928183</v>
+      </c>
+      <c r="K6">
+        <v>105572767</v>
+      </c>
+      <c r="L6">
+        <v>156491337</v>
+      </c>
+      <c r="M6">
+        <v>51644584</v>
+      </c>
+      <c r="N6">
+        <v>50918570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E7">
+        <v>-371134</v>
+      </c>
+      <c r="F7">
+        <v>-233428</v>
+      </c>
+      <c r="G7">
+        <v>76395</v>
+      </c>
+      <c r="H7">
+        <v>137706</v>
+      </c>
+      <c r="I7">
+        <v>309823</v>
+      </c>
+      <c r="J7">
+        <v>-977</v>
+      </c>
+      <c r="K7">
+        <v>1040540</v>
+      </c>
+      <c r="L7">
+        <v>1732804</v>
+      </c>
+      <c r="M7">
+        <v>1041517</v>
+      </c>
+      <c r="N7">
+        <v>692264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E8">
+        <v>416727</v>
+      </c>
+      <c r="F8">
+        <v>968180</v>
+      </c>
+      <c r="G8">
+        <v>1274914</v>
+      </c>
+      <c r="H8">
+        <v>551453</v>
+      </c>
+      <c r="I8">
+        <v>306734</v>
+      </c>
+      <c r="J8">
+        <v>-87916</v>
+      </c>
+      <c r="K8">
+        <v>-242619</v>
+      </c>
+      <c r="L8">
+        <v>795122</v>
+      </c>
+      <c r="M8">
+        <v>-154703</v>
+      </c>
+      <c r="N8">
+        <v>1037741</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E9">
+        <v>-432655</v>
+      </c>
+      <c r="F9">
+        <v>2983004</v>
+      </c>
+      <c r="G9">
+        <v>3114377</v>
+      </c>
+      <c r="H9">
+        <v>3415659</v>
+      </c>
+      <c r="I9">
+        <v>131373</v>
+      </c>
+      <c r="J9">
+        <v>-1073146</v>
+      </c>
+      <c r="K9">
+        <v>-2107846</v>
+      </c>
+      <c r="L9">
+        <v>-2253743</v>
+      </c>
+      <c r="M9">
+        <v>-1034700</v>
+      </c>
+      <c r="N9">
+        <v>-145897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E10">
+        <v>-39450559</v>
+      </c>
+      <c r="F10">
+        <v>-79165570</v>
+      </c>
+      <c r="G10">
+        <v>-119316736</v>
+      </c>
+      <c r="H10">
+        <v>-39715011</v>
+      </c>
+      <c r="I10">
+        <v>-40151166</v>
+      </c>
+      <c r="J10">
+        <v>-35877711</v>
+      </c>
+      <c r="K10">
+        <v>-70436217</v>
+      </c>
+      <c r="L10">
+        <v>-107728846</v>
+      </c>
+      <c r="M10">
+        <v>-34558506</v>
+      </c>
+      <c r="N10">
+        <v>-37292629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E11">
+        <v>-39450559</v>
+      </c>
+      <c r="F11">
+        <v>-79165570</v>
+      </c>
+      <c r="G11">
+        <v>-119316736</v>
+      </c>
+      <c r="H11">
+        <v>-39715011</v>
+      </c>
+      <c r="I11">
+        <v>-40151166</v>
+      </c>
+      <c r="J11">
+        <v>-35877711</v>
+      </c>
+      <c r="K11">
+        <v>-70436217</v>
+      </c>
+      <c r="L11">
+        <v>-107728846</v>
+      </c>
+      <c r="M11">
+        <v>-34558506</v>
+      </c>
+      <c r="N11">
+        <v>-37292629</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E12">
+        <v>17983606</v>
+      </c>
+      <c r="F12">
+        <v>35120123</v>
+      </c>
+      <c r="G12">
+        <v>51035945</v>
+      </c>
+      <c r="H12">
+        <v>17136517</v>
+      </c>
+      <c r="I12">
+        <v>15915822</v>
+      </c>
+      <c r="J12">
+        <v>16888433</v>
+      </c>
+      <c r="K12">
+        <v>33826625</v>
+      </c>
+      <c r="L12">
+        <v>49036674</v>
+      </c>
+      <c r="M12">
+        <v>16938192</v>
+      </c>
+      <c r="N12">
+        <v>15210049</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E13">
+        <v>-11708018</v>
+      </c>
+      <c r="F13">
+        <v>-25793594</v>
+      </c>
+      <c r="G13">
+        <v>-39651551</v>
+      </c>
+      <c r="H13">
+        <v>-14085576</v>
+      </c>
+      <c r="I13">
+        <v>-13857957</v>
+      </c>
+      <c r="J13">
+        <v>-12587969</v>
+      </c>
+      <c r="K13">
+        <v>-25797351</v>
+      </c>
+      <c r="L13">
+        <v>-35431305</v>
+      </c>
+      <c r="M13">
+        <v>-13209382</v>
+      </c>
+      <c r="N13">
+        <v>-9633954</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E14">
+        <v>-7071789</v>
+      </c>
+      <c r="F14">
+        <v>-14797610</v>
+      </c>
+      <c r="G14">
+        <v>-24269124</v>
+      </c>
+      <c r="H14">
+        <v>-7725821</v>
+      </c>
+      <c r="I14">
+        <v>-9471514</v>
+      </c>
+      <c r="J14">
+        <v>-7109052</v>
+      </c>
+      <c r="K14">
+        <v>-14387043</v>
+      </c>
+      <c r="L14">
+        <v>-18357812</v>
+      </c>
+      <c r="M14">
+        <v>-7277991</v>
+      </c>
+      <c r="N14">
+        <v>-3970769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E15">
+        <v>-6885623</v>
+      </c>
+      <c r="F15">
+        <v>-14302488</v>
+      </c>
+      <c r="G15">
+        <v>-23589994</v>
+      </c>
+      <c r="H15">
+        <v>-7416865</v>
+      </c>
+      <c r="I15">
+        <v>-9287506</v>
+      </c>
+      <c r="J15">
+        <v>-6817639</v>
+      </c>
+      <c r="K15">
+        <v>-14635505</v>
+      </c>
+      <c r="L15">
+        <v>-17705925</v>
+      </c>
+      <c r="M15">
+        <v>-7817866</v>
+      </c>
+      <c r="N15">
+        <v>-3070420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E16">
+        <v>-186166</v>
+      </c>
+      <c r="F16">
+        <v>-495122</v>
+      </c>
+      <c r="G16">
+        <v>-679130</v>
+      </c>
+      <c r="H16">
+        <v>-308956</v>
+      </c>
+      <c r="I16">
+        <v>-184008</v>
+      </c>
+      <c r="J16">
+        <v>-291413</v>
+      </c>
+      <c r="K16">
+        <v>248462</v>
+      </c>
+      <c r="L16">
+        <v>-651887</v>
+      </c>
+      <c r="M16">
+        <v>539875</v>
+      </c>
+      <c r="N16">
+        <v>-900349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E17">
+        <v>6649686</v>
+      </c>
+      <c r="F17">
+        <v>13362986</v>
+      </c>
+      <c r="G17">
+        <v>20314971</v>
+      </c>
+      <c r="H17">
+        <v>6716937</v>
+      </c>
+      <c r="I17">
+        <v>6948348</v>
+      </c>
+      <c r="J17">
+        <v>6387567</v>
+      </c>
+      <c r="K17">
+        <v>13201571</v>
+      </c>
+      <c r="L17">
+        <v>20982624</v>
+      </c>
+      <c r="M17">
+        <v>6814004</v>
+      </c>
+      <c r="N17">
+        <v>7266080</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E18">
+        <v>-5141744</v>
+      </c>
+      <c r="F18">
+        <v>-10232126</v>
+      </c>
+      <c r="G18">
+        <v>-15389791</v>
+      </c>
+      <c r="H18">
+        <v>-5090382</v>
+      </c>
+      <c r="I18">
+        <v>-5157665</v>
+      </c>
+      <c r="J18">
+        <v>-5274886</v>
+      </c>
+      <c r="K18">
+        <v>-10634577</v>
+      </c>
+      <c r="L18">
+        <v>-16260514</v>
+      </c>
+      <c r="M18">
+        <v>-5359691</v>
+      </c>
+      <c r="N18">
+        <v>-5625937</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E19">
+        <v>-3751903</v>
+      </c>
+      <c r="F19">
+        <v>-7834196</v>
+      </c>
+      <c r="G19">
+        <v>-11937928</v>
+      </c>
+      <c r="H19">
+        <v>-4082293</v>
+      </c>
+      <c r="I19">
+        <v>-4103732</v>
+      </c>
+      <c r="J19">
+        <v>-3913278</v>
+      </c>
+      <c r="K19">
+        <v>-7897707</v>
+      </c>
+      <c r="L19">
+        <v>-11960914</v>
+      </c>
+      <c r="M19">
+        <v>-3984429</v>
+      </c>
+      <c r="N19">
+        <v>-4063207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E20">
+        <v>-1820865</v>
+      </c>
+      <c r="F20">
+        <v>-3712175</v>
+      </c>
+      <c r="G20">
+        <v>-5407916</v>
+      </c>
+      <c r="H20">
+        <v>-1891310</v>
+      </c>
+      <c r="I20">
+        <v>-1695741</v>
+      </c>
+      <c r="J20">
+        <v>-1705384</v>
+      </c>
+      <c r="K20">
+        <v>-3298134</v>
+      </c>
+      <c r="L20">
+        <v>-5221225</v>
+      </c>
+      <c r="M20">
+        <v>-1592750</v>
+      </c>
+      <c r="N20">
+        <v>-1923091</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E21">
+        <v>12577830</v>
+      </c>
+      <c r="F21">
+        <v>24661515</v>
+      </c>
+      <c r="G21">
+        <v>37613937</v>
+      </c>
+      <c r="H21">
+        <v>12516393</v>
+      </c>
+      <c r="I21">
+        <v>12519714</v>
+      </c>
+      <c r="J21">
+        <v>13843207</v>
+      </c>
+      <c r="K21">
+        <v>27812288</v>
+      </c>
+      <c r="L21">
+        <v>43033259</v>
+      </c>
+      <c r="M21">
+        <v>13969081</v>
+      </c>
+      <c r="N21">
+        <v>15220971</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E22">
+        <v>12577830</v>
+      </c>
+      <c r="F22">
+        <v>24661515</v>
+      </c>
+      <c r="G22">
+        <v>37613937</v>
+      </c>
+      <c r="H22">
+        <v>12516393</v>
+      </c>
+      <c r="I22">
+        <v>12519714</v>
+      </c>
+      <c r="J22">
+        <v>13843207</v>
+      </c>
+      <c r="K22">
+        <v>27812288</v>
+      </c>
+      <c r="L22">
+        <v>43033259</v>
+      </c>
+      <c r="M22">
+        <v>13969081</v>
+      </c>
+      <c r="N22">
+        <v>15220971</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E23">
+        <v>-13545233</v>
+      </c>
+      <c r="F23">
+        <v>-28301759</v>
+      </c>
+      <c r="G23">
+        <v>-42153630</v>
+      </c>
+      <c r="H23">
+        <v>-15192871</v>
+      </c>
+      <c r="I23">
+        <v>-13415526</v>
+      </c>
+      <c r="J23">
+        <v>-15280298</v>
+      </c>
+      <c r="K23">
+        <v>-31525745</v>
+      </c>
+      <c r="L23">
+        <v>-48950768</v>
+      </c>
+      <c r="M23">
+        <v>-16245447</v>
+      </c>
+      <c r="N23">
+        <v>-16910050</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E24">
+        <v>-1569404</v>
+      </c>
+      <c r="F24">
+        <v>-3073326</v>
+      </c>
+      <c r="G24">
+        <v>-4604336</v>
+      </c>
+      <c r="H24">
+        <v>-1503922</v>
+      </c>
+      <c r="I24">
+        <v>-1531010</v>
+      </c>
+      <c r="J24">
+        <v>-1519257</v>
+      </c>
+      <c r="K24">
+        <v>-3068109</v>
+      </c>
+      <c r="L24">
+        <v>-4677509</v>
+      </c>
+      <c r="M24">
+        <v>-1548852</v>
+      </c>
+      <c r="N24">
+        <v>-1609400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E25">
+        <v>-11383821</v>
+      </c>
+      <c r="F25">
+        <v>-23236714</v>
+      </c>
+      <c r="G25">
+        <v>-34499534</v>
+      </c>
+      <c r="H25">
+        <v>-11852893</v>
+      </c>
+      <c r="I25">
+        <v>-11262820</v>
+      </c>
+      <c r="J25">
+        <v>-12096400</v>
+      </c>
+      <c r="K25">
+        <v>-24124950</v>
+      </c>
+      <c r="L25">
+        <v>-37423874</v>
+      </c>
+      <c r="M25">
+        <v>-12028550</v>
+      </c>
+      <c r="N25">
+        <v>-12783951</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E26">
+        <v>-592008</v>
+      </c>
+      <c r="F26">
+        <v>-1991719</v>
+      </c>
+      <c r="G26">
+        <v>-3049760</v>
+      </c>
+      <c r="H26">
+        <v>-1836056</v>
+      </c>
+      <c r="I26">
+        <v>-621696</v>
+      </c>
+      <c r="J26">
+        <v>-1664641</v>
+      </c>
+      <c r="K26">
+        <v>-4332686</v>
+      </c>
+      <c r="L26">
+        <v>-6849385</v>
+      </c>
+      <c r="M26">
+        <v>-2668045</v>
+      </c>
+      <c r="N26">
+        <v>-2516699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E27">
+        <v>396000</v>
+      </c>
+      <c r="F27">
+        <v>1059771</v>
+      </c>
+      <c r="G27">
+        <v>1577930</v>
+      </c>
+      <c r="H27">
+        <v>663771</v>
+      </c>
+      <c r="I27">
+        <v>518159</v>
+      </c>
+      <c r="J27">
+        <v>464155</v>
+      </c>
+      <c r="K27">
+        <v>931996</v>
+      </c>
+      <c r="L27">
+        <v>1304045</v>
+      </c>
+      <c r="M27">
+        <v>467841</v>
+      </c>
+      <c r="N27">
+        <v>372049</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E28">
+        <v>6275588</v>
+      </c>
+      <c r="F28">
+        <v>9326529</v>
+      </c>
+      <c r="G28">
+        <v>11384394</v>
+      </c>
+      <c r="H28">
+        <v>3050941</v>
+      </c>
+      <c r="I28">
+        <v>2057865</v>
+      </c>
+      <c r="J28">
+        <v>4300464</v>
+      </c>
+      <c r="K28">
+        <v>8029274</v>
+      </c>
+      <c r="L28">
+        <v>13605369</v>
+      </c>
+      <c r="M28">
+        <v>3728810</v>
+      </c>
+      <c r="N28">
+        <v>5576095</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E29">
+        <v>-801778</v>
+      </c>
+      <c r="F29">
+        <v>218546</v>
+      </c>
+      <c r="G29">
+        <v>1631725</v>
+      </c>
+      <c r="H29">
+        <v>1020324</v>
+      </c>
+      <c r="I29">
+        <v>1413179</v>
+      </c>
+      <c r="J29">
+        <v>-97696</v>
+      </c>
+      <c r="K29">
+        <v>358901</v>
+      </c>
+      <c r="L29">
+        <v>-272111</v>
+      </c>
+      <c r="M29">
+        <v>456597</v>
+      </c>
+      <c r="N29">
+        <v>-631012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E30">
+        <v>-3633054</v>
+      </c>
+      <c r="F30">
+        <v>-4323659</v>
+      </c>
+      <c r="G30">
+        <v>-5978047</v>
+      </c>
+      <c r="H30">
+        <v>-690604</v>
+      </c>
+      <c r="I30">
+        <v>-1654388</v>
+      </c>
+      <c r="J30">
+        <v>-2963006</v>
+      </c>
+      <c r="K30">
+        <v>-4260649</v>
+      </c>
+      <c r="L30">
+        <v>-5640047</v>
+      </c>
+      <c r="M30">
+        <v>-1297644</v>
+      </c>
+      <c r="N30">
+        <v>-2116396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E31">
+        <v>2831276</v>
+      </c>
+      <c r="F31">
+        <v>4542205</v>
+      </c>
+      <c r="G31">
+        <v>7609772</v>
+      </c>
+      <c r="H31">
+        <v>1710928</v>
+      </c>
+      <c r="I31">
+        <v>3067567</v>
+      </c>
+      <c r="J31">
+        <v>2865310</v>
+      </c>
+      <c r="K31">
+        <v>4619550</v>
+      </c>
+      <c r="L31">
+        <v>5367936</v>
+      </c>
+      <c r="M31">
+        <v>1754241</v>
+      </c>
+      <c r="N31">
+        <v>1485384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E32">
+        <v>5473810</v>
+      </c>
+      <c r="F32">
+        <v>9545075</v>
+      </c>
+      <c r="G32">
+        <v>13016119</v>
+      </c>
+      <c r="H32">
+        <v>4071265</v>
+      </c>
+      <c r="I32">
+        <v>3471044</v>
+      </c>
+      <c r="J32">
+        <v>4202768</v>
+      </c>
+      <c r="K32">
+        <v>8388175</v>
+      </c>
+      <c r="L32">
+        <v>13333258</v>
+      </c>
+      <c r="M32">
+        <v>4185407</v>
+      </c>
+      <c r="N32">
+        <v>4945083</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E34">
+        <v>5473810</v>
+      </c>
+      <c r="F34">
+        <v>9545075</v>
+      </c>
+      <c r="G34">
+        <v>13016119</v>
+      </c>
+      <c r="H34">
+        <v>4071265</v>
+      </c>
+      <c r="I34">
+        <v>3471044</v>
+      </c>
+      <c r="J34">
+        <v>4202768</v>
+      </c>
+      <c r="K34">
+        <v>8388175</v>
+      </c>
+      <c r="L34">
+        <v>13333258</v>
+      </c>
+      <c r="M34">
+        <v>4185407</v>
+      </c>
+      <c r="N34">
+        <v>4945083</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E36">
+        <v>5473810</v>
+      </c>
+      <c r="F36">
+        <v>9545075</v>
+      </c>
+      <c r="G36">
+        <v>13016119</v>
+      </c>
+      <c r="H36">
+        <v>4071265</v>
+      </c>
+      <c r="I36">
+        <v>3471044</v>
+      </c>
+      <c r="J36">
+        <v>4202768</v>
+      </c>
+      <c r="K36">
+        <v>8388175</v>
+      </c>
+      <c r="L36">
+        <v>13333258</v>
+      </c>
+      <c r="M36">
+        <v>4185407</v>
+      </c>
+      <c r="N36">
+        <v>4945083</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E37">
+        <v>5399792</v>
+      </c>
+      <c r="F37">
+        <v>9416215</v>
+      </c>
+      <c r="G37">
+        <v>12816190</v>
+      </c>
+      <c r="H37">
+        <v>4016423</v>
+      </c>
+      <c r="I37">
+        <v>3399975</v>
+      </c>
+      <c r="J37">
+        <v>4120943</v>
+      </c>
+      <c r="K37">
+        <v>8237096</v>
+      </c>
+      <c r="L37">
+        <v>13106712</v>
+      </c>
+      <c r="M37">
+        <v>4116153</v>
+      </c>
+      <c r="N37">
+        <v>4869616</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E38">
+        <v>74018</v>
+      </c>
+      <c r="F38">
+        <v>128860</v>
+      </c>
+      <c r="G38">
+        <v>199929</v>
+      </c>
+      <c r="H38">
+        <v>54842</v>
+      </c>
+      <c r="I38">
+        <v>71069</v>
+      </c>
+      <c r="J38">
+        <v>81825</v>
+      </c>
+      <c r="K38">
+        <v>151079</v>
+      </c>
+      <c r="L38">
+        <v>226546</v>
+      </c>
+      <c r="M38">
+        <v>69254</v>
+      </c>
+      <c r="N38">
+        <v>75467</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E41">
+        <v>0.48</v>
+      </c>
+      <c r="F41">
+        <v>0.84</v>
+      </c>
+      <c r="G41">
+        <v>1.14</v>
+      </c>
+      <c r="H41">
+        <v>0.36</v>
+      </c>
+      <c r="I41">
+        <v>0.3</v>
+      </c>
+      <c r="J41">
+        <v>0.37</v>
+      </c>
+      <c r="K41">
+        <v>0.74</v>
+      </c>
+      <c r="L41">
+        <v>1.17</v>
+      </c>
+      <c r="M41">
+        <v>0.37</v>
+      </c>
+      <c r="N41">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E42">
+        <v>0.53</v>
+      </c>
+      <c r="F42">
+        <v>0.93</v>
+      </c>
+      <c r="G42">
+        <v>1.26</v>
+      </c>
+      <c r="H42">
+        <v>0.4</v>
+      </c>
+      <c r="I42">
+        <v>0.33</v>
+      </c>
+      <c r="J42">
+        <v>0.41</v>
+      </c>
+      <c r="K42">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L42">
+        <v>1.3</v>
+      </c>
+      <c r="M42">
+        <v>0.41</v>
+      </c>
+      <c r="N42">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E44">
+        <v>0.48</v>
+      </c>
+      <c r="F44">
+        <v>0.84</v>
+      </c>
+      <c r="G44">
+        <v>1.14</v>
+      </c>
+      <c r="H44">
+        <v>0.36</v>
+      </c>
+      <c r="I44">
+        <v>0.3</v>
+      </c>
+      <c r="J44">
+        <v>0.37</v>
+      </c>
+      <c r="K44">
+        <v>0.74</v>
+      </c>
+      <c r="L44">
+        <v>1.17</v>
+      </c>
+      <c r="M44">
+        <v>0.37</v>
+      </c>
+      <c r="N44">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E45">
+        <v>0.53</v>
+      </c>
+      <c r="F45">
+        <v>0.93</v>
+      </c>
+      <c r="G45">
+        <v>1.26</v>
+      </c>
+      <c r="H45">
+        <v>0.4</v>
+      </c>
+      <c r="I45">
+        <v>0.33</v>
+      </c>
+      <c r="J45">
+        <v>0.41</v>
+      </c>
+      <c r="K45">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L45">
+        <v>1.3</v>
+      </c>
+      <c r="M45">
+        <v>0.41</v>
+      </c>
+      <c r="N45">
+        <v>0.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A5:A45"/>
+    <mergeCell ref="B5:B45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
